--- a/scripts/20140618_xintianhong.xlsx
+++ b/scripts/20140618_xintianhong.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="省份">OFFSET(#REF!,0,0,COUNTA(#REF!)-1,)</definedName>
     <definedName name="系数1">#REF!</definedName>
@@ -1271,18 +1268,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1317,9 +1308,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -1327,19 +1316,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="主界面"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1667,13 +1643,14 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G57"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="55.83203125" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
@@ -1683,13 +1660,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1706,13 +1683,13 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1729,13 +1706,13 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1752,13 +1729,13 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1775,13 +1752,13 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1798,13 +1775,13 @@
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1821,13 +1798,13 @@
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1844,13 +1821,13 @@
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1867,13 +1844,13 @@
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1890,13 +1867,13 @@
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1913,13 +1890,13 @@
       <c r="A11" s="1">
         <v>750</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1936,13 +1913,13 @@
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1959,13 +1936,13 @@
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1982,13 +1959,13 @@
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2005,13 +1982,13 @@
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2028,13 +2005,13 @@
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2051,13 +2028,13 @@
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2074,13 +2051,13 @@
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2097,13 +2074,13 @@
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2120,13 +2097,13 @@
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2143,13 +2120,13 @@
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -2166,13 +2143,13 @@
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2189,13 +2166,13 @@
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -2212,13 +2189,13 @@
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -2235,13 +2212,13 @@
       <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -2258,13 +2235,13 @@
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2281,13 +2258,13 @@
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -2304,13 +2281,13 @@
       <c r="A28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2327,13 +2304,13 @@
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2350,13 +2327,13 @@
       <c r="A30" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -2373,13 +2350,13 @@
       <c r="A31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -2396,13 +2373,13 @@
       <c r="A32" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -2419,13 +2396,13 @@
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>147</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -2442,13 +2419,13 @@
       <c r="A34" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -2465,13 +2442,13 @@
       <c r="A35" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -2488,13 +2465,13 @@
       <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2511,13 +2488,13 @@
       <c r="A37" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -2534,13 +2511,13 @@
       <c r="A38" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -2557,13 +2534,13 @@
       <c r="A39" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -2580,13 +2557,13 @@
       <c r="A40" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -2603,13 +2580,13 @@
       <c r="A41" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -2626,13 +2603,13 @@
       <c r="A42" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -2649,13 +2626,13 @@
       <c r="A43" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -2672,13 +2649,13 @@
       <c r="A44" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -2695,13 +2672,13 @@
       <c r="A45" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -2718,13 +2695,13 @@
       <c r="A46" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -2741,13 +2718,13 @@
       <c r="A47" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -2764,13 +2741,13 @@
       <c r="A48" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>218</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -2787,13 +2764,13 @@
       <c r="A49" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -2810,13 +2787,13 @@
       <c r="A50" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>231</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -2833,13 +2810,13 @@
       <c r="A51" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>235</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -2856,13 +2833,13 @@
       <c r="A52" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>239</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -2879,13 +2856,13 @@
       <c r="A53" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>243</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -2902,13 +2879,13 @@
       <c r="A54" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -2925,13 +2902,13 @@
       <c r="A55" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>255</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -2948,13 +2925,13 @@
       <c r="A56" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>260</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -2971,13 +2948,13 @@
       <c r="A57" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E57" s="1" t="s">
